--- a/log/stats.xlsx
+++ b/log/stats.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>variables_optimized</t>
   </si>
@@ -860,11 +861,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,6 +1206,7 @@
     <col min="5" max="5" width="255.625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1821,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1833,9 +1838,10 @@
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -1891,32 +1897,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>47</v>
       </c>
@@ -1965,8 +1971,11 @@
       <c r="I14">
         <v>70.313999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="2">
+        <v>0.76595999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2038,4 +2047,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/log/stats.xlsx
+++ b/log/stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2053,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:C20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2178,26 +2178,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
     </row>
